--- a/test/data/cldf/new_minimal/minimal_cognate.xlsx
+++ b/test/data/cldf/new_minimal/minimal_cognate.xlsx
@@ -54,7 +54,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>First person singular pronoun as agent of a transitive clause</t>
+          <t>Cognate set comment</t>
         </r>
       </text>
     </comment>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Set</t>
   </si>
@@ -80,10 +80,16 @@
     <t>TG100</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>&lt;em&gt; (emphatic) {fict}</t>
+  </si>
+  <si>
+    <t>WOMAN1</t>
+  </si>
+  <si>
+    <t>PERSON1</t>
+  </si>
+  <si>
+    <t>/am/ (description) {anysource}</t>
   </si>
 </sst>
 </file>
@@ -455,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -482,11 +488,22 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
